--- a/dataset/summary_stats.xlsx
+++ b/dataset/summary_stats.xlsx
@@ -661,7 +661,7 @@
         <v>17.15976331360947</v>
       </c>
       <c r="M2">
-        <v>30.76923076923077</v>
+        <v>31.36094674556213</v>
       </c>
       <c r="N2">
         <v>1.775147928994083</v>
@@ -772,13 +772,13 @@
         <v>0</v>
       </c>
       <c r="AX2">
-        <v>3.976331360946745</v>
+        <v>3.989940828402367</v>
       </c>
       <c r="AY2">
-        <v>10.6508875739645</v>
+        <v>10.05917159763314</v>
       </c>
       <c r="AZ2">
-        <v>8.284023668639053</v>
+        <v>7.692307692307693</v>
       </c>
     </row>
     <row r="3">
@@ -823,7 +823,7 @@
         <v>1.197604790419162</v>
       </c>
       <c r="M3">
-        <v>60.47904191616767</v>
+        <v>61.67664670658683</v>
       </c>
       <c r="N3">
         <v>0.5988023952095808</v>
@@ -934,13 +934,13 @@
         <v>0</v>
       </c>
       <c r="AX3">
-        <v>2.188622754491018</v>
+        <v>2.229940119760479</v>
       </c>
       <c r="AY3">
-        <v>44.91017964071856</v>
+        <v>43.11377245508982</v>
       </c>
       <c r="AZ3">
-        <v>39.52095808383233</v>
+        <v>37.7245508982036</v>
       </c>
     </row>
     <row r="4">
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>4.264497041420118</v>
+        <v>4.291715976331361</v>
       </c>
       <c r="AY4">
-        <v>5.917159763313609</v>
+        <v>5.325443786982248</v>
       </c>
       <c r="AZ4">
-        <v>4.142011834319526</v>
+        <v>3.550295857988166</v>
       </c>
     </row>
     <row r="5">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="AX6">
-        <v>4.196111111111111</v>
+        <v>4.208888888888889</v>
       </c>
       <c r="AY6">
         <v>8.333333333333334</v>

--- a/dataset/summary_stats.xlsx
+++ b/dataset/summary_stats.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AZ7"/>
+  <dimension ref="A1:BG7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,6 +618,41 @@
           <t>narrow_alt</t>
         </is>
       </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Xi_0</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Xi_1</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Xi_2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Xi_3</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Xi_4</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Xi</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Xi_avg</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -780,6 +815,27 @@
       <c r="AZ2">
         <v>7.692307692307693</v>
       </c>
+      <c r="BA2">
+        <v>89.3491124260355</v>
+      </c>
+      <c r="BB2">
+        <v>2.958579881656805</v>
+      </c>
+      <c r="BC2">
+        <v>2.958579881656805</v>
+      </c>
+      <c r="BD2">
+        <v>4.733727810650888</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>10.6508875739645</v>
+      </c>
+      <c r="BG2">
+        <v>0.2307692307692308</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -934,13 +990,34 @@
         <v>0</v>
       </c>
       <c r="AX3">
-        <v>2.229940119760479</v>
+        <v>2.223952095808383</v>
       </c>
       <c r="AY3">
-        <v>43.11377245508982</v>
+        <v>43.7125748502994</v>
       </c>
       <c r="AZ3">
         <v>37.7245508982036</v>
+      </c>
+      <c r="BA3">
+        <v>91.01796407185628</v>
+      </c>
+      <c r="BB3">
+        <v>1.796407185628742</v>
+      </c>
+      <c r="BC3">
+        <v>0.5988023952095808</v>
+      </c>
+      <c r="BD3">
+        <v>4.790419161676646</v>
+      </c>
+      <c r="BE3">
+        <v>1.796407185628742</v>
+      </c>
+      <c r="BF3">
+        <v>8.982035928143716</v>
+      </c>
+      <c r="BG3">
+        <v>0.2455089820359281</v>
       </c>
     </row>
     <row r="4">
@@ -1096,13 +1173,34 @@
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>4.291715976331361</v>
+        <v>4.285798816568048</v>
       </c>
       <c r="AY4">
         <v>5.325443786982248</v>
       </c>
       <c r="AZ4">
         <v>3.550295857988166</v>
+      </c>
+      <c r="BA4">
+        <v>85.20710059171597</v>
+      </c>
+      <c r="BB4">
+        <v>4.733727810650888</v>
+      </c>
+      <c r="BC4">
+        <v>2.366863905325444</v>
+      </c>
+      <c r="BD4">
+        <v>5.917159763313609</v>
+      </c>
+      <c r="BE4">
+        <v>1.775147928994083</v>
+      </c>
+      <c r="BF4">
+        <v>14.79289940828403</v>
+      </c>
+      <c r="BG4">
+        <v>0.3431952662721893</v>
       </c>
     </row>
     <row r="5">
@@ -1266,6 +1364,27 @@
       <c r="AZ5">
         <v>32.92682926829269</v>
       </c>
+      <c r="BA5">
+        <v>92.07317073170732</v>
+      </c>
+      <c r="BB5">
+        <v>3.658536585365854</v>
+      </c>
+      <c r="BC5">
+        <v>0.6097560975609756</v>
+      </c>
+      <c r="BD5">
+        <v>3.048780487804878</v>
+      </c>
+      <c r="BE5">
+        <v>0.6097560975609756</v>
+      </c>
+      <c r="BF5">
+        <v>7.926829268292678</v>
+      </c>
+      <c r="BG5">
+        <v>0.1646341463414634</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1420,13 +1539,34 @@
         <v>0</v>
       </c>
       <c r="AX6">
-        <v>4.208888888888889</v>
+        <v>4.203333333333333</v>
       </c>
       <c r="AY6">
         <v>8.333333333333334</v>
       </c>
       <c r="AZ6">
         <v>6.666666666666667</v>
+      </c>
+      <c r="BA6">
+        <v>88.33333333333333</v>
+      </c>
+      <c r="BB6">
+        <v>3.888888888888889</v>
+      </c>
+      <c r="BC6">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="BD6">
+        <v>3.888888888888889</v>
+      </c>
+      <c r="BE6">
+        <v>2.777777777777778</v>
+      </c>
+      <c r="BF6">
+        <v>11.66666666666667</v>
+      </c>
+      <c r="BG6">
+        <v>0.2888888888888889</v>
       </c>
     </row>
     <row r="7">
@@ -1582,13 +1722,34 @@
         <v>0</v>
       </c>
       <c r="AX7">
-        <v>1.917543859649123</v>
+        <v>1.911695906432749</v>
       </c>
       <c r="AY7">
+        <v>54.3859649122807</v>
+      </c>
+      <c r="AZ7">
         <v>53.80116959064328</v>
       </c>
-      <c r="AZ7">
-        <v>53.21637426900585</v>
+      <c r="BA7">
+        <v>95.32163742690058</v>
+      </c>
+      <c r="BB7">
+        <v>1.754385964912281</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>2.339181286549707</v>
+      </c>
+      <c r="BE7">
+        <v>0.5847953216374269</v>
+      </c>
+      <c r="BF7">
+        <v>4.67836257309942</v>
+      </c>
+      <c r="BG7">
+        <v>0.1111111111111111</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/summary_stats.xlsx
+++ b/dataset/summary_stats.xlsx
@@ -807,13 +807,13 @@
         <v>0</v>
       </c>
       <c r="AX2">
-        <v>3.989940828402367</v>
+        <v>3.751479289940828</v>
       </c>
       <c r="AY2">
-        <v>10.05917159763314</v>
+        <v>11.24260355029586</v>
       </c>
       <c r="AZ2">
-        <v>7.692307692307693</v>
+        <v>8.284023668639053</v>
       </c>
       <c r="BA2">
         <v>89.3491124260355</v>
@@ -990,13 +990,13 @@
         <v>0</v>
       </c>
       <c r="AX3">
-        <v>2.223952095808383</v>
+        <v>2.061676646706587</v>
       </c>
       <c r="AY3">
-        <v>43.7125748502994</v>
+        <v>46.10778443113772</v>
       </c>
       <c r="AZ3">
-        <v>37.7245508982036</v>
+        <v>41.91616766467066</v>
       </c>
       <c r="BA3">
         <v>91.01796407185628</v>
@@ -1173,13 +1173,13 @@
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>4.285798816568048</v>
+        <v>4</v>
       </c>
       <c r="AY4">
         <v>5.325443786982248</v>
       </c>
       <c r="AZ4">
-        <v>3.550295857988166</v>
+        <v>4.142011834319526</v>
       </c>
       <c r="BA4">
         <v>85.20710059171597</v>
@@ -1356,13 +1356,13 @@
         <v>1</v>
       </c>
       <c r="AX5">
-        <v>2.406707317073171</v>
+        <v>2.3</v>
       </c>
       <c r="AY5">
-        <v>40.85365853658536</v>
+        <v>41.46341463414634</v>
       </c>
       <c r="AZ5">
-        <v>32.92682926829269</v>
+        <v>34.14634146341464</v>
       </c>
       <c r="BA5">
         <v>92.07317073170732</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="AX6">
-        <v>4.203333333333333</v>
+        <v>3.88</v>
       </c>
       <c r="AY6">
-        <v>8.333333333333334</v>
+        <v>9.444444444444445</v>
       </c>
       <c r="AZ6">
-        <v>6.666666666666667</v>
+        <v>7.777777777777778</v>
       </c>
       <c r="BA6">
         <v>88.33333333333333</v>
@@ -1722,13 +1722,13 @@
         <v>0</v>
       </c>
       <c r="AX7">
-        <v>1.911695906432749</v>
+        <v>1.792982456140351</v>
       </c>
       <c r="AY7">
-        <v>54.3859649122807</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="AZ7">
-        <v>53.80116959064328</v>
+        <v>54.97076023391813</v>
       </c>
       <c r="BA7">
         <v>95.32163742690058</v>
